--- a/Vendor Wise Sales Report.xlsx
+++ b/Vendor Wise Sales Report.xlsx
@@ -705,7 +705,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -766,10 +766,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
